--- a/tables/2022-12/sup_table_overview_Dec.xlsx
+++ b/tables/2022-12/sup_table_overview_Dec.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="210">
   <si>
     <t>Population size</t>
   </si>
@@ -38,12 +38,6 @@
     <t>Proportion sequenced (%)</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Percentage Alpha (95% CI)</t>
-  </si>
-  <si>
     <t>Omicron (BA.1)</t>
   </si>
   <si>
@@ -74,6 +68,12 @@
     <t>Percentage Omicron (BA.2.75) (95% CI)</t>
   </si>
   <si>
+    <t>Omicron (BQ.1)</t>
+  </si>
+  <si>
+    <t>Percentage Omicron (BQ.1) (95% CI)</t>
+  </si>
+  <si>
     <t>Omicron (XBB)</t>
   </si>
   <si>
@@ -260,13 +260,13 @@
     <t>26.09</t>
   </si>
   <si>
-    <t>26.40</t>
+    <t>26.23</t>
   </si>
   <si>
     <t>23.13</t>
   </si>
   <si>
-    <t>26.81</t>
+    <t>26.82</t>
   </si>
   <si>
     <t>29.54</t>
@@ -275,7 +275,7 @@
     <t>27.09</t>
   </si>
   <si>
-    <t>24.42</t>
+    <t>24.41</t>
   </si>
   <si>
     <t>28.22</t>
@@ -347,7 +347,130 @@
     <t>1.4</t>
   </si>
   <si>
-    <t>62.6 (59.3-65.8)</t>
+    <t>0.1 (0.0-0.6)</t>
+  </si>
+  <si>
+    <t>0.3 (0.0-1.9)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1.1 (0.0-5.8)</t>
+  </si>
+  <si>
+    <t>0.3 (0.1-1.0)</t>
+  </si>
+  <si>
+    <t>0.7 (0.0-3.6)</t>
+  </si>
+  <si>
+    <t>0.9 (0.1-3.3)</t>
+  </si>
+  <si>
+    <t>14.3 (0.4-57.9)</t>
+  </si>
+  <si>
+    <t>0.6 (0.0-3.2)</t>
+  </si>
+  <si>
+    <t>1.8 (1.0-3.0)</t>
+  </si>
+  <si>
+    <t>4.2 (2.2-7.1)</t>
+  </si>
+  <si>
+    <t>5.2 (2.3-10.0)</t>
+  </si>
+  <si>
+    <t>2.2 (0.3-7.6)</t>
+  </si>
+  <si>
+    <t>5.0 (0.6-16.9)</t>
+  </si>
+  <si>
+    <t>0.7 (0.0-3.9)</t>
+  </si>
+  <si>
+    <t>0.8 (0.0-4.3)</t>
+  </si>
+  <si>
+    <t>1.2 (0.1-4.2)</t>
+  </si>
+  <si>
+    <t>1.5 (0.0-8.3)</t>
+  </si>
+  <si>
+    <t>1.8 (0.0-9.6)</t>
+  </si>
+  <si>
+    <t>15.0 (12.7-17.5)</t>
+  </si>
+  <si>
+    <t>11.1 (7.7-15.3)</t>
+  </si>
+  <si>
+    <t>13.1 (8.2-19.5)</t>
+  </si>
+  <si>
+    <t>10.8 (5.3-18.9)</t>
+  </si>
+  <si>
+    <t>19.4 (13.2-27.0)</t>
+  </si>
+  <si>
+    <t>19.7 (13.2-27.7)</t>
+  </si>
+  <si>
+    <t>20.0 (0.5-71.6)</t>
+  </si>
+  <si>
+    <t>16.4 (10.8-23.5)</t>
+  </si>
+  <si>
+    <t>19.0 (10.2-30.9)</t>
+  </si>
+  <si>
+    <t>14.6 (5.6-29.2)</t>
+  </si>
+  <si>
+    <t>9.4 (2.0-25.0)</t>
+  </si>
+  <si>
+    <t>30.0 (6.7-65.2)</t>
+  </si>
+  <si>
+    <t>5.9 (0.1-28.7)</t>
+  </si>
+  <si>
+    <t>11.1 (0.3-48.2)</t>
+  </si>
+  <si>
+    <t>17.1 (12.4-22.8)</t>
+  </si>
+  <si>
+    <t>18.8 (4.0-45.6)</t>
+  </si>
+  <si>
+    <t>28.6 (3.7-71.0)</t>
+  </si>
+  <si>
+    <t>18.7 (13.2-25.4)</t>
+  </si>
+  <si>
+    <t>13.8 (6.5-24.7)</t>
+  </si>
+  <si>
+    <t>16.1 (7.6-28.3)</t>
+  </si>
+  <si>
+    <t>0.2 (0.0-0.8)</t>
+  </si>
+  <si>
+    <t>0.5 (0.0-2.6)</t>
+  </si>
+  <si>
+    <t>61.9 (58.6-65.1)</t>
   </si>
   <si>
     <t>67.5 (61.7-72.8)</t>
@@ -377,19 +500,19 @@
     <t>40.0 (5.3-85.3)</t>
   </si>
   <si>
-    <t>56.2 (47.7-64.4)</t>
+    <t>52.1 (43.6-60.4)</t>
   </si>
   <si>
     <t>57.1 (44.0-69.5)</t>
   </si>
   <si>
-    <t>53.7 (37.4-69.3)</t>
+    <t>41.5 (26.3-57.9)</t>
   </si>
   <si>
     <t>56.2 (37.7-73.6)</t>
   </si>
   <si>
-    <t>60.0 (26.2-87.8)</t>
+    <t>50.0 (18.7-81.3)</t>
   </si>
   <si>
     <t>58.8 (32.9-81.6)</t>
@@ -398,9 +521,6 @@
     <t>33.3 (7.5-70.1)</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>83.3 (35.9-99.6)</t>
   </si>
   <si>
@@ -434,126 +554,6 @@
     <t>64.3 (50.4-76.6)</t>
   </si>
   <si>
-    <t>0.1 (0.0-0.6)</t>
-  </si>
-  <si>
-    <t>0.3 (0.0-1.9)</t>
-  </si>
-  <si>
-    <t>1.1 (0.0-5.8)</t>
-  </si>
-  <si>
-    <t>0.3 (0.1-1.0)</t>
-  </si>
-  <si>
-    <t>0.7 (0.0-3.6)</t>
-  </si>
-  <si>
-    <t>0.9 (0.1-3.3)</t>
-  </si>
-  <si>
-    <t>14.3 (0.4-57.9)</t>
-  </si>
-  <si>
-    <t>0.6 (0.0-3.2)</t>
-  </si>
-  <si>
-    <t>1.8 (1.0-3.0)</t>
-  </si>
-  <si>
-    <t>4.2 (2.2-7.1)</t>
-  </si>
-  <si>
-    <t>5.2 (2.3-10.0)</t>
-  </si>
-  <si>
-    <t>2.2 (0.3-7.6)</t>
-  </si>
-  <si>
-    <t>5.0 (0.6-16.9)</t>
-  </si>
-  <si>
-    <t>0.7 (0.0-3.9)</t>
-  </si>
-  <si>
-    <t>0.8 (0.0-4.3)</t>
-  </si>
-  <si>
-    <t>1.2 (0.1-4.2)</t>
-  </si>
-  <si>
-    <t>1.5 (0.0-8.3)</t>
-  </si>
-  <si>
-    <t>1.8 (0.0-9.6)</t>
-  </si>
-  <si>
-    <t>15.0 (12.7-17.5)</t>
-  </si>
-  <si>
-    <t>11.1 (7.7-15.3)</t>
-  </si>
-  <si>
-    <t>13.1 (8.2-19.5)</t>
-  </si>
-  <si>
-    <t>10.8 (5.3-18.9)</t>
-  </si>
-  <si>
-    <t>19.4 (13.2-27.0)</t>
-  </si>
-  <si>
-    <t>19.7 (13.2-27.7)</t>
-  </si>
-  <si>
-    <t>20.0 (0.5-71.6)</t>
-  </si>
-  <si>
-    <t>16.4 (10.8-23.5)</t>
-  </si>
-  <si>
-    <t>19.0 (10.2-30.9)</t>
-  </si>
-  <si>
-    <t>14.6 (5.6-29.2)</t>
-  </si>
-  <si>
-    <t>9.4 (2.0-25.0)</t>
-  </si>
-  <si>
-    <t>30.0 (6.7-65.2)</t>
-  </si>
-  <si>
-    <t>5.9 (0.1-28.7)</t>
-  </si>
-  <si>
-    <t>11.1 (0.3-48.2)</t>
-  </si>
-  <si>
-    <t>17.1 (12.4-22.8)</t>
-  </si>
-  <si>
-    <t>18.8 (4.0-45.6)</t>
-  </si>
-  <si>
-    <t>28.6 (3.7-71.0)</t>
-  </si>
-  <si>
-    <t>18.7 (13.2-25.4)</t>
-  </si>
-  <si>
-    <t>13.8 (6.5-24.7)</t>
-  </si>
-  <si>
-    <t>16.1 (7.6-28.3)</t>
-  </si>
-  <si>
-    <t>0.2 (0.0-0.8)</t>
-  </si>
-  <si>
-    <t>0.5 (0.0-2.6)</t>
-  </si>
-  <si>
     <t>2.1 (1.2-3.2)</t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>2.3 (0.6-5.9)</t>
   </si>
   <si>
-    <t>17.8 (15.4-20.6)</t>
+    <t>18.5 (16.0-21.3)</t>
   </si>
   <si>
     <t>14.9 (11.0-19.5)</t>
@@ -605,16 +605,19 @@
     <t>16.5 (10.5-24.2)</t>
   </si>
   <si>
-    <t>26.0 (19.1-33.9)</t>
+    <t>30.1 (22.8-38.3)</t>
   </si>
   <si>
     <t>23.8 (14.0-36.2)</t>
   </si>
   <si>
-    <t>26.8 (14.2-42.9)</t>
+    <t>39.0 (24.2-55.5)</t>
   </si>
   <si>
     <t>34.4 (18.6-53.2)</t>
+  </si>
+  <si>
+    <t>20.0 (2.5-55.6)</t>
   </si>
   <si>
     <t>29.4 (10.3-56.0)</t>
@@ -775,13 +778,13 @@
         <v>8738791.0</v>
       </c>
       <c r="C2" t="n">
-        <v>42695.0</v>
+        <v>42697.0</v>
       </c>
       <c r="D2" t="n">
         <v>768.0</v>
       </c>
       <c r="E2" t="n">
-        <v>189606.0</v>
+        <v>189612.0</v>
       </c>
       <c r="F2" t="n">
         <v>2170.0</v>
@@ -796,40 +799,40 @@
         <v>91</v>
       </c>
       <c r="J2" t="n">
-        <v>547.0</v>
+        <v>1.0</v>
       </c>
       <c r="K2" t="s">
         <v>111</v>
       </c>
       <c r="L2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="N2" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="O2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="P2" t="n">
-        <v>16.0</v>
+        <v>131.0</v>
       </c>
       <c r="Q2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="R2" t="n">
-        <v>131.0</v>
+        <v>2.0</v>
       </c>
       <c r="S2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="T2" t="n">
-        <v>2.0</v>
+        <v>541.0</v>
       </c>
       <c r="U2" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="V2" t="n">
         <v>18.0</v>
@@ -838,7 +841,7 @@
         <v>180</v>
       </c>
       <c r="X2" t="n">
-        <v>156.0</v>
+        <v>162.0</v>
       </c>
       <c r="Y2" t="s">
         <v>190</v>
@@ -855,7 +858,7 @@
         <v>1861791.0</v>
       </c>
       <c r="C3" t="n">
-        <v>11705.0</v>
+        <v>11707.0</v>
       </c>
       <c r="D3" t="n">
         <v>988.0</v>
@@ -876,7 +879,7 @@
         <v>92</v>
       </c>
       <c r="J3" t="n">
-        <v>195.0</v>
+        <v>1.0</v>
       </c>
       <c r="K3" t="s">
         <v>112</v>
@@ -885,31 +888,31 @@
         <v>1.0</v>
       </c>
       <c r="M3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="N3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.0</v>
       </c>
-      <c r="O3" t="s">
-        <v>141</v>
-      </c>
-      <c r="P3" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>149</v>
-      </c>
-      <c r="R3" t="n">
-        <v>32.0</v>
-      </c>
       <c r="S3" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="T3" t="n">
-        <v>1.0</v>
+        <v>195.0</v>
       </c>
       <c r="U3" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="V3" t="n">
         <v>4.0</v>
@@ -956,40 +959,40 @@
         <v>93</v>
       </c>
       <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>113</v>
+      </c>
+      <c r="T4" t="n">
         <v>97.0</v>
       </c>
-      <c r="K4" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>144</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>150</v>
-      </c>
-      <c r="R4" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>160</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U4" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="V4" t="n">
         <v>2.0</v>
@@ -1036,52 +1039,52 @@
         <v>94</v>
       </c>
       <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>113</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>113</v>
+      </c>
+      <c r="T5" t="n">
         <v>3.0</v>
       </c>
-      <c r="K5" t="s">
-        <v>114</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>128</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>128</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>128</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S5" t="s">
-        <v>128</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U5" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="V5" t="n">
         <v>0.0</v>
       </c>
       <c r="W5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X5" t="n">
         <v>0.0</v>
       </c>
       <c r="Y5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Z5" t="n">
         <v>0.0</v>
@@ -1095,7 +1098,7 @@
         <v>822968.0</v>
       </c>
       <c r="C6" t="n">
-        <v>5890.0</v>
+        <v>5892.0</v>
       </c>
       <c r="D6" t="n">
         <v>1125.0</v>
@@ -1116,46 +1119,46 @@
         <v>95</v>
       </c>
       <c r="J6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>123</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>133</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T6" t="n">
         <v>65.0</v>
       </c>
-      <c r="K6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>151</v>
-      </c>
-      <c r="R6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>161</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.0</v>
-      </c>
       <c r="U6" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="V6" t="n">
         <v>0.0</v>
       </c>
       <c r="W6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X6" t="n">
         <v>14.0</v>
@@ -1196,46 +1199,46 @@
         <v>96</v>
       </c>
       <c r="J7" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="O7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P7" t="n">
         <v>2.0</v>
       </c>
       <c r="Q7" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="R7" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="S7" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="U7" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="V7" t="n">
         <v>2.0</v>
       </c>
       <c r="W7" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="X7" t="n">
         <v>4.0</v>
@@ -1276,40 +1279,40 @@
         <v>97</v>
       </c>
       <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8" t="n">
         <v>81.0</v>
       </c>
-      <c r="K8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>128</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>128</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>153</v>
-      </c>
-      <c r="R8" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>162</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U8" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="V8" t="n">
         <v>5.0</v>
@@ -1356,40 +1359,40 @@
         <v>98</v>
       </c>
       <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>126</v>
+      </c>
+      <c r="P9" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>135</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T9" t="n">
         <v>75.0</v>
       </c>
-      <c r="K9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>128</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>128</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>154</v>
-      </c>
-      <c r="R9" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="S9" t="s">
-        <v>163</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U9" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="V9" t="n">
         <v>5.0</v>
@@ -1436,52 +1439,52 @@
         <v>99</v>
       </c>
       <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>118</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>113</v>
+      </c>
+      <c r="T10" t="n">
         <v>4.0</v>
       </c>
-      <c r="K10" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>128</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>128</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>128</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S10" t="s">
-        <v>146</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U10" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="V10" t="n">
         <v>0.0</v>
       </c>
       <c r="W10" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X10" t="n">
         <v>2.0</v>
       </c>
       <c r="Y10" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="Z10" t="n">
         <v>0.0</v>
@@ -1516,52 +1519,52 @@
         <v>97</v>
       </c>
       <c r="J11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>113</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.0</v>
       </c>
-      <c r="K11" t="s">
-        <v>120</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>128</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>128</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>128</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S11" t="s">
-        <v>164</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U11" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="V11" t="n">
         <v>0.0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X11" t="n">
         <v>2.0</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="Z11" t="n">
         <v>0.0</v>
@@ -1596,40 +1599,40 @@
         <v>100</v>
       </c>
       <c r="J12" t="n">
-        <v>82.0</v>
+        <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
       </c>
       <c r="O12" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="Q12" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="R12" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="S12" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
       <c r="U12" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="V12" t="n">
         <v>2.0</v>
@@ -1638,7 +1641,7 @@
         <v>185</v>
       </c>
       <c r="X12" t="n">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="Y12" t="s">
         <v>197</v>
@@ -1676,46 +1679,46 @@
         <v>91</v>
       </c>
       <c r="J13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>113</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>138</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>113</v>
+      </c>
+      <c r="T13" t="n">
         <v>36.0</v>
       </c>
-      <c r="K13" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>128</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>128</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>128</v>
-      </c>
-      <c r="R13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="S13" t="s">
-        <v>166</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U13" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="V13" t="n">
         <v>0.0</v>
       </c>
       <c r="W13" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X13" t="n">
         <v>15.0</v>
@@ -1756,40 +1759,40 @@
         <v>97</v>
       </c>
       <c r="J14" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
       <c r="M14" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
       </c>
       <c r="O14" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q14" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="R14" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="S14" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="U14" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="V14" t="n">
         <v>2.0</v>
@@ -1798,7 +1801,7 @@
         <v>186</v>
       </c>
       <c r="X14" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="Y14" t="s">
         <v>199</v>
@@ -1836,46 +1839,46 @@
         <v>101</v>
       </c>
       <c r="J15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>113</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>140</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>113</v>
+      </c>
+      <c r="T15" t="n">
         <v>18.0</v>
       </c>
-      <c r="K15" t="s">
-        <v>124</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>128</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>128</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>128</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S15" t="s">
-        <v>168</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U15" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="V15" t="n">
         <v>0.0</v>
       </c>
       <c r="W15" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X15" t="n">
         <v>11.0</v>
@@ -1916,52 +1919,52 @@
         <v>102</v>
       </c>
       <c r="J16" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
       </c>
       <c r="O16" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q16" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="R16" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="S16" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="U16" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="V16" t="n">
         <v>0.0</v>
       </c>
       <c r="W16" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y16" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="Z16" t="n">
         <v>0.0</v>
@@ -1996,52 +1999,52 @@
         <v>102</v>
       </c>
       <c r="J17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>113</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>113</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>142</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>113</v>
+      </c>
+      <c r="T17" t="n">
         <v>10.0</v>
       </c>
-      <c r="K17" t="s">
-        <v>126</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>128</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O17" t="s">
-        <v>128</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>128</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S17" t="s">
-        <v>170</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U17" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="V17" t="n">
         <v>1.0</v>
       </c>
       <c r="W17" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="X17" t="n">
         <v>5.0</v>
       </c>
       <c r="Y17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Z17" t="n">
         <v>0.0</v>
@@ -2076,52 +2079,52 @@
         <v>102</v>
       </c>
       <c r="J18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>143</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>113</v>
+      </c>
+      <c r="T18" t="n">
         <v>3.0</v>
       </c>
-      <c r="K18" t="s">
-        <v>127</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>128</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O18" t="s">
-        <v>128</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>128</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>171</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U18" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="V18" t="n">
         <v>1.0</v>
       </c>
       <c r="W18" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="X18" t="n">
         <v>4.0</v>
       </c>
       <c r="Y18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z18" t="n">
         <v>0.0</v>
@@ -2159,49 +2162,49 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
       </c>
       <c r="M19" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
       </c>
       <c r="O19" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="P19" t="n">
         <v>0.0</v>
       </c>
       <c r="Q19" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="R19" t="n">
         <v>0.0</v>
       </c>
       <c r="S19" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
       </c>
       <c r="U19" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="V19" t="n">
         <v>0.0</v>
       </c>
       <c r="W19" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X19" t="n">
         <v>0.0</v>
       </c>
       <c r="Y19" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Z19" t="n">
         <v>0.0</v>
@@ -2239,49 +2242,49 @@
         <v>0.0</v>
       </c>
       <c r="K20" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
       </c>
       <c r="M20" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="N20" t="n">
         <v>0.0</v>
       </c>
       <c r="O20" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="P20" t="n">
         <v>0.0</v>
       </c>
       <c r="Q20" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="R20" t="n">
         <v>0.0</v>
       </c>
       <c r="S20" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="T20" t="n">
         <v>0.0</v>
       </c>
       <c r="U20" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="V20" t="n">
         <v>0.0</v>
       </c>
       <c r="W20" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X20" t="n">
         <v>0.0</v>
       </c>
       <c r="Y20" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Z20" t="n">
         <v>0.0</v>
@@ -2316,52 +2319,52 @@
         <v>104</v>
       </c>
       <c r="J21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>113</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>113</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>113</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>113</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S21" t="s">
+        <v>113</v>
+      </c>
+      <c r="T21" t="n">
         <v>5.0</v>
       </c>
-      <c r="K21" t="s">
-        <v>129</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>128</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>128</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>128</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>128</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U21" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="V21" t="n">
         <v>0.0</v>
       </c>
       <c r="W21" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X21" t="n">
         <v>1.0</v>
       </c>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z21" t="n">
         <v>0.0</v>
@@ -2399,49 +2402,49 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
       </c>
       <c r="M22" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
       </c>
       <c r="O22" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="P22" t="n">
         <v>0.0</v>
       </c>
       <c r="Q22" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="R22" t="n">
         <v>0.0</v>
       </c>
       <c r="S22" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="T22" t="n">
         <v>0.0</v>
       </c>
       <c r="U22" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="V22" t="n">
         <v>0.0</v>
       </c>
       <c r="W22" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X22" t="n">
         <v>0.0</v>
       </c>
       <c r="Y22" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Z22" t="n">
         <v>0.0</v>
@@ -2476,52 +2479,52 @@
         <v>99</v>
       </c>
       <c r="J23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>113</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>113</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>113</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S23" t="s">
+        <v>113</v>
+      </c>
+      <c r="T23" t="n">
         <v>2.0</v>
       </c>
-      <c r="K23" t="s">
-        <v>130</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>128</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O23" t="s">
-        <v>128</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>128</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S23" t="s">
-        <v>128</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U23" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="V23" t="n">
         <v>0.0</v>
       </c>
       <c r="W23" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X23" t="n">
         <v>0.0</v>
       </c>
       <c r="Y23" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Z23" t="n">
         <v>0.0</v>
@@ -2541,7 +2544,7 @@
         <v>650.0</v>
       </c>
       <c r="E24" t="n">
-        <v>48750.0</v>
+        <v>48756.0</v>
       </c>
       <c r="F24" t="n">
         <v>1899.0</v>
@@ -2556,40 +2559,40 @@
         <v>91</v>
       </c>
       <c r="J24" t="n">
-        <v>137.0</v>
+        <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M24" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="N24" t="n">
         <v>2.0</v>
       </c>
       <c r="O24" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="P24" t="n">
-        <v>2.0</v>
+        <v>37.0</v>
       </c>
       <c r="Q24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R24" t="n">
-        <v>37.0</v>
+        <v>1.0</v>
       </c>
       <c r="S24" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="T24" t="n">
-        <v>1.0</v>
+        <v>137.0</v>
       </c>
       <c r="U24" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="V24" t="n">
         <v>5.0</v>
@@ -2601,7 +2604,7 @@
         <v>32.0</v>
       </c>
       <c r="Y24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z24" t="n">
         <v>0.0</v>
@@ -2639,49 +2642,49 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
       </c>
       <c r="M25" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
       </c>
       <c r="O25" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="P25" t="n">
         <v>0.0</v>
       </c>
       <c r="Q25" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="R25" t="n">
         <v>0.0</v>
       </c>
       <c r="S25" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="T25" t="n">
         <v>0.0</v>
       </c>
       <c r="U25" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="V25" t="n">
         <v>0.0</v>
       </c>
       <c r="W25" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X25" t="n">
         <v>0.0</v>
       </c>
       <c r="Y25" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Z25" t="n">
         <v>0.0</v>
@@ -2695,16 +2698,16 @@
         <v>55585.0</v>
       </c>
       <c r="C26" t="n">
-        <v>106.0</v>
+        <v>105.0</v>
       </c>
       <c r="D26" t="n">
-        <v>300.0</v>
+        <v>297.0</v>
       </c>
       <c r="E26" t="n">
-        <v>428.0</v>
+        <v>427.0</v>
       </c>
       <c r="F26" t="n">
-        <v>770.0</v>
+        <v>768.0</v>
       </c>
       <c r="G26" t="s">
         <v>82</v>
@@ -2716,52 +2719,52 @@
         <v>105</v>
       </c>
       <c r="J26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>113</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>113</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>113</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>113</v>
+      </c>
+      <c r="T26" t="n">
         <v>3.0</v>
       </c>
-      <c r="K26" t="s">
-        <v>132</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>128</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O26" t="s">
-        <v>128</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>128</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S26" t="s">
-        <v>128</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U26" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="V26" t="n">
         <v>0.0</v>
       </c>
       <c r="W26" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X26" t="n">
         <v>1.0</v>
       </c>
       <c r="Y26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z26" t="n">
         <v>0.0</v>
@@ -2796,52 +2799,52 @@
         <v>106</v>
       </c>
       <c r="J27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>113</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>113</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>113</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>113</v>
+      </c>
+      <c r="T27" t="n">
         <v>6.0</v>
       </c>
-      <c r="K27" t="s">
-        <v>133</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M27" t="s">
-        <v>128</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O27" t="s">
-        <v>128</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>128</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S27" t="s">
-        <v>128</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U27" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="V27" t="n">
         <v>0.0</v>
       </c>
       <c r="W27" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X27" t="n">
         <v>2.0</v>
       </c>
       <c r="Y27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z27" t="n">
         <v>0.0</v>
@@ -2855,16 +2858,16 @@
         <v>519245.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1263.0</v>
+        <v>1264.0</v>
       </c>
       <c r="D28" t="n">
-        <v>382.0</v>
+        <v>383.0</v>
       </c>
       <c r="E28" t="n">
-        <v>5215.0</v>
+        <v>5216.0</v>
       </c>
       <c r="F28" t="n">
-        <v>1004.0</v>
+        <v>1005.0</v>
       </c>
       <c r="G28" t="s">
         <v>84</v>
@@ -2876,52 +2879,52 @@
         <v>104</v>
       </c>
       <c r="J28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>113</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>145</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>113</v>
+      </c>
+      <c r="T28" t="n">
         <v>10.0</v>
       </c>
-      <c r="K28" t="s">
-        <v>134</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>128</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O28" t="s">
-        <v>128</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>128</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S28" t="s">
-        <v>173</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U28" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="V28" t="n">
         <v>0.0</v>
       </c>
       <c r="W28" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X28" t="n">
         <v>3.0</v>
       </c>
       <c r="Y28" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="Z28" t="n">
         <v>0.0</v>
@@ -2956,52 +2959,52 @@
         <v>107</v>
       </c>
       <c r="J29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>118</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>146</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>113</v>
+      </c>
+      <c r="T29" t="n">
         <v>4.0</v>
       </c>
-      <c r="K29" t="s">
-        <v>119</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M29" t="s">
-        <v>128</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O29" t="s">
-        <v>146</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>128</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S29" t="s">
-        <v>174</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U29" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="V29" t="n">
         <v>0.0</v>
       </c>
       <c r="W29" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X29" t="n">
         <v>0.0</v>
       </c>
       <c r="Y29" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Z29" t="n">
         <v>0.0</v>
@@ -3036,40 +3039,40 @@
         <v>108</v>
       </c>
       <c r="J30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>113</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>113</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>113</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>113</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>113</v>
+      </c>
+      <c r="T30" t="n">
         <v>9.0</v>
       </c>
-      <c r="K30" t="s">
-        <v>135</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M30" t="s">
-        <v>128</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O30" t="s">
-        <v>128</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>128</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S30" t="s">
-        <v>128</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U30" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="V30" t="n">
         <v>1.0</v>
@@ -3081,7 +3084,7 @@
         <v>0.0</v>
       </c>
       <c r="Y30" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Z30" t="n">
         <v>0.0</v>
@@ -3101,7 +3104,7 @@
         <v>783.0</v>
       </c>
       <c r="E31" t="n">
-        <v>37145.0</v>
+        <v>37151.0</v>
       </c>
       <c r="F31" t="n">
         <v>2374.0</v>
@@ -3116,40 +3119,40 @@
         <v>109</v>
       </c>
       <c r="J31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>113</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>119</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>147</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>119</v>
+      </c>
+      <c r="T31" t="n">
         <v>105.0</v>
       </c>
-      <c r="K31" t="s">
-        <v>136</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>128</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O31" t="s">
-        <v>147</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>155</v>
-      </c>
-      <c r="R31" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="S31" t="s">
-        <v>175</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.0</v>
-      </c>
       <c r="U31" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="V31" t="n">
         <v>4.0</v>
@@ -3161,7 +3164,7 @@
         <v>26.0</v>
       </c>
       <c r="Y31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z31" t="n">
         <v>0.0</v>
@@ -3196,52 +3199,52 @@
         <v>95</v>
       </c>
       <c r="J32" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="K32" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
       </c>
       <c r="M32" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O32" t="s">
         <v>128</v>
       </c>
       <c r="P32" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="Q32" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="R32" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="S32" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="U32" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="V32" t="n">
         <v>1.0</v>
       </c>
       <c r="W32" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="X32" t="n">
         <v>13.0</v>
       </c>
       <c r="Y32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z32" t="n">
         <v>0.0</v>
@@ -3276,52 +3279,52 @@
         <v>110</v>
       </c>
       <c r="J33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>113</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>113</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>113</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>113</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S33" t="s">
+        <v>113</v>
+      </c>
+      <c r="T33" t="n">
         <v>5.0</v>
       </c>
-      <c r="K33" t="s">
-        <v>138</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>128</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O33" t="s">
-        <v>128</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>128</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S33" t="s">
-        <v>128</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U33" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="V33" t="n">
         <v>0.0</v>
       </c>
       <c r="W33" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="X33" t="n">
         <v>4.0</v>
       </c>
       <c r="Y33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z33" t="n">
         <v>0.0</v>
@@ -3356,52 +3359,52 @@
         <v>107</v>
       </c>
       <c r="J34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>113</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>113</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>129</v>
+      </c>
+      <c r="P34" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>149</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>113</v>
+      </c>
+      <c r="T34" t="n">
         <v>36.0</v>
       </c>
-      <c r="K34" t="s">
-        <v>139</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>128</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O34" t="s">
-        <v>128</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>157</v>
-      </c>
-      <c r="R34" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="S34" t="s">
-        <v>177</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U34" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="V34" t="n">
         <v>1.0</v>
       </c>
       <c r="W34" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="X34" t="n">
         <v>9.0</v>
       </c>
       <c r="Y34" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="Z34" t="n">
         <v>0.0</v>
